--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_12</t>
+          <t>model_14_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9901881995628865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.7998626313644041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.9814566875471887</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.9997066539681223</v>
       </c>
       <c r="F2" t="n">
-        <v>0.991653789977436</v>
+        <v>0.9947977199700837</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.06561155470216469</v>
       </c>
       <c r="H2" t="n">
-        <v>1.337814389340858</v>
+        <v>1.338319505614076</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.0246853397724914</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.000992837848185116</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.01283908881033826</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4705550148206427</v>
+        <v>1.622390037262879</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.2561475252704283</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001535637861471</v>
+        <v>1.004805779805933</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.2670522557196655</v>
       </c>
       <c r="P2" t="n">
-        <v>153.7297538798103</v>
+        <v>151.4480069195804</v>
       </c>
       <c r="Q2" t="n">
-        <v>242.707689095189</v>
+        <v>240.425942134959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_22</t>
+          <t>model_14_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9914904535645591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.7996298043535717</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.9690499406987509</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.9989543263324608</v>
       </c>
       <c r="F3" t="n">
-        <v>0.991653789977436</v>
+        <v>0.9909357541442014</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.05690337619665159</v>
       </c>
       <c r="H3" t="n">
-        <v>1.337814389340858</v>
+        <v>1.339876420907582</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.04120152382560222</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.003539111769599035</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.02237031779760063</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4705550148206427</v>
+        <v>1.502854217901654</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.2385442856088814</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001535637861471</v>
+        <v>1.004167941111236</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.248699609701997</v>
       </c>
       <c r="P3" t="n">
-        <v>153.7297538798103</v>
+        <v>151.7328012079847</v>
       </c>
       <c r="Q3" t="n">
-        <v>242.707689095189</v>
+        <v>240.7107364233634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_21</t>
+          <t>model_14_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9923449345813815</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.7991357463548234</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.9538729277810959</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.9979296912224869</v>
       </c>
       <c r="F4" t="n">
-        <v>0.991653789977436</v>
+        <v>0.9861399232816125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.05118945770263715</v>
       </c>
       <c r="H4" t="n">
-        <v>1.337814389340858</v>
+        <v>1.343180189020139</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.06140555811328452</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.007007017952784893</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.03420630086849504</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4705550148206427</v>
+        <v>1.395211269895038</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.226250873374308</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001535637861471</v>
+        <v>1.003749419796874</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.2358828414577263</v>
       </c>
       <c r="P4" t="n">
-        <v>153.7297538798103</v>
+        <v>151.9444433447665</v>
       </c>
       <c r="Q4" t="n">
-        <v>242.707689095189</v>
+        <v>240.9223785601451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_20</t>
+          <t>model_14_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9928667942976327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.7984695776157461</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.9371791900072054</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.9967566680035532</v>
       </c>
       <c r="F5" t="n">
-        <v>0.991653789977436</v>
+        <v>0.9808332968649194</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.04769977937712203</v>
       </c>
       <c r="H5" t="n">
-        <v>1.337814389340858</v>
+        <v>1.347634862445775</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.08362869597336438</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.01097714784035367</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.04730291378733235</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4705550148206427</v>
+        <v>1.298287688280421</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.2184027915964492</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001535637861471</v>
+        <v>1.003493815037894</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.2277006505908151</v>
       </c>
       <c r="P5" t="n">
-        <v>153.7297538798103</v>
+        <v>152.0856570126322</v>
       </c>
       <c r="Q5" t="n">
-        <v>242.707689095189</v>
+        <v>241.0635922280109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_19</t>
+          <t>model_14_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9931427458604674</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.797695628077855</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.9198373587623684</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.9955170310103674</v>
       </c>
       <c r="F6" t="n">
-        <v>0.991653789977436</v>
+        <v>0.9753061991396617</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.04585449000580671</v>
       </c>
       <c r="H6" t="n">
-        <v>1.337814389340858</v>
+        <v>1.352810266569362</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.1067145927162146</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.01517273390970495</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.06094364403444</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4705550148206427</v>
+        <v>1.211023439433162</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.2141366152852116</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001535637861471</v>
+        <v>1.003358655088751</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.2232528543218057</v>
       </c>
       <c r="P6" t="n">
-        <v>153.7297538798103</v>
+        <v>152.164564313843</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.707689095189</v>
+        <v>241.1424995292216</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_18</t>
+          <t>model_14_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9932384204342186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.7968607169868758</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.9024432806101693</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.9942642957553088</v>
       </c>
       <c r="F7" t="n">
-        <v>0.991653789977436</v>
+        <v>0.9697560211901785</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.04521471369059121</v>
       </c>
       <c r="H7" t="n">
-        <v>1.337814389340858</v>
+        <v>1.358393320879152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.1298700419008723</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.01941265141265106</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.07464133566134437</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4705550148206427</v>
+        <v>1.132449829911265</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.2126375171285425</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001535637861471</v>
+        <v>1.003311794073036</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.2216899364530462</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7297538798103</v>
+        <v>152.1926654419746</v>
       </c>
       <c r="Q7" t="n">
-        <v>242.707689095189</v>
+        <v>241.1706006573532</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_17</t>
+          <t>model_14_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9932035808802699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.795998858448441</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.8854011727607148</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.9930333346554794</v>
       </c>
       <c r="F8" t="n">
-        <v>0.991653789977436</v>
+        <v>0.9643156989283017</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.04544768594826773</v>
       </c>
       <c r="H8" t="n">
-        <v>1.337814389340858</v>
+        <v>1.36415657289416</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.1525569390652161</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.02357887367831996</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.08806790637176802</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4705550148206427</v>
+        <v>1.061708123817985</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.2131846287804722</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001535637861471</v>
+        <v>1.003328858344358</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.2222603397806758</v>
       </c>
       <c r="P8" t="n">
-        <v>153.7297538798103</v>
+        <v>152.1823867477687</v>
       </c>
       <c r="Q8" t="n">
-        <v>242.707689095189</v>
+        <v>241.1603219631473</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_16</t>
+          <t>model_14_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9930761175790673</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.7951346210690154</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.8689796955594895</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.9918467021887463</v>
       </c>
       <c r="F9" t="n">
-        <v>0.991653789977436</v>
+        <v>0.9590731782635196</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.04630003363032368</v>
       </c>
       <c r="H9" t="n">
-        <v>1.337814389340858</v>
+        <v>1.369935732229825</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.1744176365705861</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.02759506444564299</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.1010063079991513</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4705550148206427</v>
+        <v>0.9980072796619257</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.2151744260601703</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001535637861471</v>
+        <v>1.003391289349028</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.2243348468500188</v>
       </c>
       <c r="P9" t="n">
-        <v>153.7297538798103</v>
+        <v>152.1452251830667</v>
       </c>
       <c r="Q9" t="n">
-        <v>242.707689095189</v>
+        <v>241.1231603984453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_15</t>
+          <t>model_14_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9928847076633784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.7942855864355767</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.8533477636530106</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.9907176927823751</v>
       </c>
       <c r="F10" t="n">
-        <v>0.991653789977436</v>
+        <v>0.9540830752392703</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.04757999261789694</v>
       </c>
       <c r="H10" t="n">
-        <v>1.337814389340858</v>
+        <v>1.375613230733076</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.1952272708467632</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.03141622835376698</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.1133217496002651</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4705550148206427</v>
+        <v>0.9406471886607127</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.2181283856307953</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001535637861471</v>
+        <v>1.003485041144468</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.2274145625951046</v>
       </c>
       <c r="P10" t="n">
-        <v>153.7297538798103</v>
+        <v>152.0906858585174</v>
       </c>
       <c r="Q10" t="n">
-        <v>242.707689095189</v>
+        <v>241.0686210738961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_14</t>
+          <t>model_14_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9926511563178639</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.7934640421031048</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.8386069678302785</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.9896543564937975</v>
       </c>
       <c r="F11" t="n">
-        <v>0.991653789977436</v>
+        <v>0.949378372669569</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.04914175154075782</v>
       </c>
       <c r="H11" t="n">
-        <v>1.337814389340858</v>
+        <v>1.381106901467178</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.214850601593471</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.03501511975819846</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.1249328304669739</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4705550148206427</v>
+        <v>0.888996838470013</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.2216793890752088</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001535637861471</v>
+        <v>1.00359943364023</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.2311167396077374</v>
       </c>
       <c r="P11" t="n">
-        <v>153.7297538798103</v>
+        <v>152.0260925372685</v>
       </c>
       <c r="Q11" t="n">
-        <v>242.707689095189</v>
+        <v>241.0040277526472</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_13</t>
+          <t>model_14_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9923918476501413</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.792678327535749</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.8248077309043762</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.988660188517857</v>
       </c>
       <c r="F12" t="n">
-        <v>0.991653789977436</v>
+        <v>0.9449750187029969</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.05087574979582531</v>
       </c>
       <c r="H12" t="n">
-        <v>1.337814389340858</v>
+        <v>1.38636097839697</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.2332205046506439</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.03837990907424765</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.1358001909925632</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4705550148206427</v>
+        <v>0.8424790090352952</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.2255565334806893</v>
       </c>
       <c r="N12" t="n">
-        <v>1.001535637861471</v>
+        <v>1.003726441967278</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.2351589420773545</v>
       </c>
       <c r="P12" t="n">
-        <v>153.7297538798103</v>
+        <v>151.956737794653</v>
       </c>
       <c r="Q12" t="n">
-        <v>242.707689095189</v>
+        <v>240.9346730100316</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_23</t>
+          <t>model_14_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9921190395236978</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.7919337359839191</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.8119650598401117</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.9877365547728629</v>
       </c>
       <c r="F13" t="n">
-        <v>0.991653789977436</v>
+        <v>0.9408780147476445</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.05270001899351869</v>
       </c>
       <c r="H13" t="n">
-        <v>1.337814389340858</v>
+        <v>1.391340065532585</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.2503170023564596</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.0415059733131991</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.1459114878348294</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4705550148206427</v>
+        <v>0.8005999909739685</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.2295648470335097</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001535637861471</v>
+        <v>1.003860062274107</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.2393378978364713</v>
       </c>
       <c r="P13" t="n">
-        <v>153.7297538798103</v>
+        <v>151.8862789260531</v>
       </c>
       <c r="Q13" t="n">
-        <v>242.707689095189</v>
+        <v>240.8642141414317</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_24</t>
+          <t>model_14_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9918418259219283</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.7912332851318683</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.8000692040686707</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.9868820563861113</v>
       </c>
       <c r="F14" t="n">
-        <v>0.991653789977436</v>
+        <v>0.9370837789308539</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.05455374762500318</v>
       </c>
       <c r="H14" t="n">
-        <v>1.337814389340858</v>
+        <v>1.396023983605528</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.2661530749216961</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.04439804699883878</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.1552755609602674</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4705550148206427</v>
+        <v>0.7628811609013525</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.2335674369962628</v>
       </c>
       <c r="N14" t="n">
-        <v>1.001535637861471</v>
+        <v>1.00399584036477</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.2435108863404423</v>
       </c>
       <c r="P14" t="n">
-        <v>153.7297538798103</v>
+        <v>151.817137736659</v>
       </c>
       <c r="Q14" t="n">
-        <v>242.707689095189</v>
+        <v>240.7950729520377</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_11</t>
+          <t>model_14_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9968647393661638</v>
+        <v>0.9915668181309786</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7999381683653615</v>
+        <v>0.7905783364631495</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9981945445186192</v>
+        <v>0.7890933984277242</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9095999071685016</v>
+        <v>0.9860946397197189</v>
       </c>
       <c r="F15" t="n">
-        <v>0.991653789977436</v>
+        <v>0.93358369244329</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02096550229501058</v>
+        <v>0.05639272598937794</v>
       </c>
       <c r="H15" t="n">
-        <v>1.337814389340858</v>
+        <v>1.400403628369013</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02586997251040144</v>
+        <v>0.2807643528264976</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1051644168253056</v>
+        <v>0.04706308072601081</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06551719289493056</v>
+        <v>0.1639136813611834</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4705550148206427</v>
+        <v>0.7289219885268676</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1447946901478455</v>
+        <v>0.2374715266918919</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001535637861471</v>
+        <v>1.004130538058296</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1509588998737685</v>
+        <v>0.2475811812169942</v>
       </c>
       <c r="P15" t="n">
-        <v>153.7297538798103</v>
+        <v>151.7508302012305</v>
       </c>
       <c r="Q15" t="n">
-        <v>242.707689095189</v>
+        <v>240.7287654166091</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_10</t>
+          <t>model_14_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9968647698153105</v>
+        <v>0.9912987815093313</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7999381205774995</v>
+        <v>0.7899690091864527</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9981945560266023</v>
+        <v>0.7789990470354323</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9096008593488435</v>
+        <v>0.985371539480473</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9916538717573595</v>
+        <v>0.9303654067839737</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02096529868142613</v>
+        <v>0.05818508811252931</v>
       </c>
       <c r="H16" t="n">
-        <v>1.337814708898511</v>
+        <v>1.404478202673978</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02586980761505515</v>
+        <v>0.2942022159124894</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1051633091329655</v>
+        <v>0.04951043370692469</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06551655092797644</v>
+        <v>0.1718563248097071</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4705517884699114</v>
+        <v>0.6983411742819698</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1447939870347734</v>
+        <v>0.2412158537752635</v>
       </c>
       <c r="N16" t="n">
-        <v>1.001535622947603</v>
+        <v>1.004261821301552</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1509581668277173</v>
+        <v>0.2514849120561305</v>
       </c>
       <c r="P16" t="n">
-        <v>153.7297733035828</v>
+        <v>151.6882523501439</v>
       </c>
       <c r="Q16" t="n">
-        <v>242.7077085189614</v>
+        <v>240.6661875655226</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_9</t>
+          <t>model_14_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9968647698153105</v>
+        <v>0.9910409993972408</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7999381205774995</v>
+        <v>0.7894044825455739</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9981945560266023</v>
+        <v>0.7697418409542506</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9096008593488435</v>
+        <v>0.9847091204817227</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9916538717573595</v>
+        <v>0.9274145222616489</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02096529868142613</v>
+        <v>0.0599088782830552</v>
       </c>
       <c r="H17" t="n">
-        <v>1.337814708898511</v>
+        <v>1.408253194920941</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02586980761505515</v>
+        <v>0.3065256493896242</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1051633091329655</v>
+        <v>0.05175240933245658</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06551655092797644</v>
+        <v>0.1791390293610404</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4705517884699114</v>
+        <v>0.6708041877933026</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1447939870347734</v>
+        <v>0.2447629021789356</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001535622947603</v>
+        <v>1.004388081927882</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1509581668277173</v>
+        <v>0.2551829656537493</v>
       </c>
       <c r="P17" t="n">
-        <v>153.7297733035828</v>
+        <v>151.6298611328581</v>
       </c>
       <c r="Q17" t="n">
-        <v>242.7077085189614</v>
+        <v>240.6077963482367</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_8</t>
+          <t>model_14_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9968647698153105</v>
+        <v>0.9907956346915682</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7999381205774995</v>
+        <v>0.788883356478252</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9981945560266023</v>
+        <v>0.7612714531731598</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9096008593488435</v>
+        <v>0.9841035358516692</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9916538717573595</v>
+        <v>0.9247148043122752</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02096529868142613</v>
+        <v>0.06154963319968895</v>
       </c>
       <c r="H18" t="n">
-        <v>1.337814708898511</v>
+        <v>1.411737967332687</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02586980761505515</v>
+        <v>0.3178016498837692</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1051633091329655</v>
+        <v>0.05380202744778548</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06551655092797644</v>
+        <v>0.1858018614876363</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4705517884699114</v>
+        <v>0.6460116470179949</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1447939870347734</v>
+        <v>0.2480919853596422</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001535622947603</v>
+        <v>1.004508260559232</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1509581668277173</v>
+        <v>0.2586537747976109</v>
       </c>
       <c r="P18" t="n">
-        <v>153.7297733035828</v>
+        <v>151.5758227715142</v>
       </c>
       <c r="Q18" t="n">
-        <v>242.7077085189614</v>
+        <v>240.5537579868928</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_7</t>
+          <t>model_14_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9968647662115121</v>
+        <v>0.9905640231548674</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7999381105393607</v>
+        <v>0.7884038135266754</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9981945517083967</v>
+        <v>0.7535367433578396</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9096007830700098</v>
+        <v>0.9835510781123677</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9916538602671205</v>
+        <v>0.9222499459379444</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02096532278004273</v>
+        <v>0.06309842061207993</v>
       </c>
       <c r="H19" t="n">
-        <v>1.337814776023592</v>
+        <v>1.414944673257972</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02586986948966978</v>
+        <v>0.3280982967379216</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1051633978698109</v>
+        <v>0.05567183611569329</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06551664112558771</v>
+        <v>0.1918850664268074</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4705520406960366</v>
+        <v>0.6236890684753796</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1447940702516602</v>
+        <v>0.25119398999992</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001535624712729</v>
+        <v>1.004621702944555</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1509582535873193</v>
+        <v>0.2618878381974601</v>
       </c>
       <c r="P19" t="n">
-        <v>153.729771004679</v>
+        <v>151.5261190793354</v>
       </c>
       <c r="Q19" t="n">
-        <v>242.7077062200576</v>
+        <v>240.5040542947141</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_6</t>
+          <t>model_14_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9968647683993487</v>
+        <v>0.9903468922951518</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7999380866714426</v>
+        <v>0.787963631025744</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9981945536502417</v>
+        <v>0.746486604735952</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9096008377579641</v>
+        <v>0.9830477516156233</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9916538660915909</v>
+        <v>0.9200034040870821</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02096530814996926</v>
+        <v>0.06455037567079361</v>
       </c>
       <c r="H20" t="n">
-        <v>1.33781493562847</v>
+        <v>1.417888175668555</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02586984166540107</v>
+        <v>0.3374836246164946</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1051633342501106</v>
+        <v>0.05737535871923322</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06551659540388297</v>
+        <v>0.1974294719900402</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4705530039041732</v>
+        <v>0.603588456854657</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1447940197313731</v>
+        <v>0.2540676596318264</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001535623641135</v>
+        <v>1.004728052753395</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1509582009162789</v>
+        <v>0.264883845894913</v>
       </c>
       <c r="P20" t="n">
-        <v>153.7297724003244</v>
+        <v>151.4806186837291</v>
       </c>
       <c r="Q20" t="n">
-        <v>242.707707615703</v>
+        <v>240.4585538991077</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_5</t>
+          <t>model_14_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9968647708217589</v>
+        <v>0.9901444129789673</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7999380650911937</v>
+        <v>0.7875605161294957</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9981945525941667</v>
+        <v>0.7400686758228239</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9096009377936753</v>
+        <v>0.9825900164787269</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9916538725401475</v>
+        <v>0.9179585987486333</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0209652919513005</v>
+        <v>0.06590435579045159</v>
       </c>
       <c r="H21" t="n">
-        <v>1.337815079935694</v>
+        <v>1.42058380683594</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02586985679766672</v>
+        <v>0.3460273384895921</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1051632178763668</v>
+        <v>0.05892457609042463</v>
       </c>
       <c r="K21" t="n">
-        <v>0.06551654478314392</v>
+        <v>0.202475997203836</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4705530267656238</v>
+        <v>0.5854937949354766</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1447939637944224</v>
+        <v>0.2567184367949673</v>
       </c>
       <c r="N21" t="n">
-        <v>1.001535622454649</v>
+        <v>1.004827226296016</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1509581425979764</v>
+        <v>0.2676474721297539</v>
       </c>
       <c r="P21" t="n">
-        <v>153.7297739456081</v>
+        <v>151.4391014853721</v>
       </c>
       <c r="Q21" t="n">
-        <v>242.7077091609868</v>
+        <v>240.4170367007507</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_4</t>
+          <t>model_14_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9968647684756017</v>
+        <v>0.9899565304207005</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7999380372982386</v>
+        <v>0.7871921246317829</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9981945610867301</v>
+        <v>0.7342349517354178</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9096007489022564</v>
+        <v>0.9821741780368001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9916538672432091</v>
+        <v>0.9161001220387558</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02096530764006556</v>
+        <v>0.06716072732270091</v>
       </c>
       <c r="H22" t="n">
-        <v>1.337815265787312</v>
+        <v>1.423047242477433</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02586973510960273</v>
+        <v>0.353793343705923</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1051634376179101</v>
+        <v>0.06033199292586856</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06551658636375639</v>
+        <v>0.2070626683158957</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4705520848360104</v>
+        <v>0.5692027430277321</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1447940179705832</v>
+        <v>0.2591538680450302</v>
       </c>
       <c r="N22" t="n">
-        <v>1.001535623603787</v>
+        <v>1.004919250406187</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1509581990805285</v>
+        <v>0.2701865847301697</v>
       </c>
       <c r="P22" t="n">
-        <v>153.729772448967</v>
+        <v>151.4013332342614</v>
       </c>
       <c r="Q22" t="n">
-        <v>242.7077076643456</v>
+        <v>240.3792684496401</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_3</t>
+          <t>model_14_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9968647878712297</v>
+        <v>0.9897828129246657</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7999380315204234</v>
+        <v>0.7868559616383972</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9981945766140489</v>
+        <v>0.7289371160178988</v>
       </c>
       <c r="E23" t="n">
-        <v>0.909601254470626</v>
+        <v>0.9817967069624451</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9916539186500628</v>
+        <v>0.914412439992084</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02096517794141166</v>
+        <v>0.06832237701858074</v>
       </c>
       <c r="H23" t="n">
-        <v>1.337815304423589</v>
+        <v>1.425295165962091</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02586951262208319</v>
+        <v>0.3608459603880071</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1051628494791031</v>
+        <v>0.06160955433283851</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0655161828233784</v>
+        <v>0.211227822739769</v>
       </c>
       <c r="L23" t="n">
-        <v>0.470549506496104</v>
+        <v>0.5545327376270359</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1447935700969199</v>
+        <v>0.2613854950424387</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001535614103888</v>
+        <v>1.005004336526694</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1509577321399562</v>
+        <v>0.2725132167089626</v>
       </c>
       <c r="P23" t="n">
-        <v>153.7297848216979</v>
+        <v>151.3670358753611</v>
       </c>
       <c r="Q23" t="n">
-        <v>242.7077200370766</v>
+        <v>240.3449710907397</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_2</t>
+          <t>model_14_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9968647848365392</v>
+        <v>0.9896227492674888</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7999379980917334</v>
+        <v>0.786549727759396</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9981945600065301</v>
+        <v>0.7241313161595553</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9096013500085949</v>
+        <v>0.9814543806484078</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9916539103461867</v>
+        <v>0.9128816115136879</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02096519823440094</v>
+        <v>0.06939272343114808</v>
       </c>
       <c r="H24" t="n">
-        <v>1.337815527961393</v>
+        <v>1.427342953321049</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02586975058755047</v>
+        <v>0.3672435661385275</v>
       </c>
       <c r="J24" t="n">
-        <v>0.105162738337682</v>
+        <v>0.06276816731570556</v>
       </c>
       <c r="K24" t="n">
-        <v>0.06551624800825342</v>
+        <v>0.2150058667271165</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4705517151103373</v>
+        <v>0.5413280356279805</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1447936401724915</v>
+        <v>0.2634249863455403</v>
       </c>
       <c r="N24" t="n">
-        <v>1.001535615590267</v>
+        <v>1.005082735052659</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1509578051987899</v>
+        <v>0.2746395333791662</v>
       </c>
       <c r="P24" t="n">
-        <v>153.7297828858232</v>
+        <v>151.3359465333235</v>
       </c>
       <c r="Q24" t="n">
-        <v>242.7077181012018</v>
+        <v>240.3138817487022</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_1</t>
+          <t>model_14_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9968647927181676</v>
+        <v>0.9894757245946254</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7999379756306548</v>
+        <v>0.7862711326674163</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9981945674157879</v>
+        <v>0.7197763171367315</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9096015419156217</v>
+        <v>0.9811444063688947</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9916539320057536</v>
+        <v>0.9114945463898955</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02096514552991485</v>
+        <v>0.07037587809557215</v>
       </c>
       <c r="H25" t="n">
-        <v>1.337815678158729</v>
+        <v>1.42920591998393</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02586964442193177</v>
+        <v>0.3730410540933278</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1051625150880157</v>
+        <v>0.0638172839330147</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06551607798209519</v>
+        <v>0.2184291065772749</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4705499959510401</v>
+        <v>0.5294428462820271</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1447934581737547</v>
+        <v>0.2652845229099733</v>
       </c>
       <c r="N25" t="n">
-        <v>1.001535611729877</v>
+        <v>1.005154747137326</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1509576154519901</v>
+        <v>0.2765782342649186</v>
       </c>
       <c r="P25" t="n">
-        <v>153.7297879136366</v>
+        <v>151.3078094304415</v>
       </c>
       <c r="Q25" t="n">
-        <v>242.7077231290152</v>
+        <v>240.2857446458202</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_0</t>
+          <t>model_14_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9968648031081014</v>
+        <v>0.9893409600458758</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7999379634754284</v>
+        <v>0.7860179610770411</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9981945860889748</v>
+        <v>0.7158319974916805</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9096016851812814</v>
+        <v>0.9808638129097554</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9916539603413237</v>
+        <v>0.9102383371190236</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02096507605237997</v>
+        <v>0.07127704925359471</v>
       </c>
       <c r="H26" t="n">
-        <v>1.337815759440784</v>
+        <v>1.430898879574517</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0258693768579636</v>
+        <v>0.3782918349803551</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1051623484239219</v>
+        <v>0.06476696034214649</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06551585554975725</v>
+        <v>0.2215293976612508</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4705487088632217</v>
+        <v>0.5187436206402828</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1447932182541019</v>
+        <v>0.266977619387084</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00153560664093</v>
+        <v>1.005220754263245</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1509573653184609</v>
+        <v>0.2783434093642527</v>
       </c>
       <c r="P26" t="n">
-        <v>153.7297945415562</v>
+        <v>151.2823617864619</v>
       </c>
       <c r="Q26" t="n">
-        <v>242.7077297569348</v>
+        <v>240.2602970018405</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_0</t>
+          <t>model_14_9_13</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9901881995628865</v>
+        <v>0.9861363885851236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7998626313644041</v>
+        <v>0.7817987212775697</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9814566875471887</v>
+        <v>0.7813385783485219</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997066539681223</v>
+        <v>0.8848928325703325</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9947977199700837</v>
+        <v>0.8751800588861716</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06561155470216469</v>
+        <v>0.09270603336733896</v>
       </c>
       <c r="H2" t="n">
-        <v>1.338319505614076</v>
+        <v>1.459112955541396</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0246853397724914</v>
+        <v>0.1396381266769956</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000992837848185116</v>
+        <v>0.4165195865052851</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01283908881033826</v>
+        <v>0.2780788046202082</v>
       </c>
       <c r="L2" t="n">
-        <v>1.622390037262879</v>
+        <v>0.2074423519425919</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2561475252704283</v>
+        <v>0.3044766548806968</v>
       </c>
       <c r="N2" t="n">
-        <v>1.004805779805933</v>
+        <v>1.006790340284837</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2670522557196655</v>
+        <v>0.3174388564325333</v>
       </c>
       <c r="P2" t="n">
-        <v>151.4480069195804</v>
+        <v>150.7566434473189</v>
       </c>
       <c r="Q2" t="n">
-        <v>240.425942134959</v>
+        <v>239.7345786626975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_1</t>
+          <t>model_14_9_14</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9914904535645591</v>
+        <v>0.9859598433375899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7996298043535717</v>
+        <v>0.781796990504097</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9690499406987509</v>
+        <v>0.77965469931783</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9989543263324608</v>
+        <v>0.8819276573696129</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9909357541442014</v>
+        <v>0.8725306269548065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05690337619665159</v>
+        <v>0.09388659225051306</v>
       </c>
       <c r="H3" t="n">
-        <v>1.339876420907582</v>
+        <v>1.459124529231576</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04120152382560222</v>
+        <v>0.1407134590864375</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003539111769599035</v>
+        <v>0.4272491837675415</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02237031779760063</v>
+        <v>0.2839813139293954</v>
       </c>
       <c r="L3" t="n">
-        <v>1.502854217901654</v>
+        <v>0.2017759181860336</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2385442856088814</v>
+        <v>0.3064091908714767</v>
       </c>
       <c r="N3" t="n">
-        <v>1.004167941111236</v>
+        <v>1.006876811426487</v>
       </c>
       <c r="O3" t="n">
-        <v>0.248699609701997</v>
+        <v>0.3194536644813418</v>
       </c>
       <c r="P3" t="n">
-        <v>151.7328012079847</v>
+        <v>150.731335380995</v>
       </c>
       <c r="Q3" t="n">
-        <v>240.7107364233634</v>
+        <v>239.7092705963736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_2</t>
+          <t>model_14_9_15</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9923449345813815</v>
+        <v>0.9857889497606127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7991357463548234</v>
+        <v>0.7817810158865111</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9538729277810959</v>
+        <v>0.7781111082596414</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9979296912224869</v>
+        <v>0.8792360582481915</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9861399232816125</v>
+        <v>0.870123473908653</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05118945770263715</v>
+        <v>0.09502935838665243</v>
       </c>
       <c r="H4" t="n">
-        <v>1.343180189020139</v>
+        <v>1.45923135157293</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06140555811328452</v>
+        <v>0.1416992029917543</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007007017952784893</v>
+        <v>0.4369888357642555</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03420630086849504</v>
+        <v>0.2893440647498099</v>
       </c>
       <c r="L4" t="n">
-        <v>1.395211269895038</v>
+        <v>0.1966765316093589</v>
       </c>
       <c r="M4" t="n">
-        <v>0.226250873374308</v>
+        <v>0.3082683220615645</v>
       </c>
       <c r="N4" t="n">
-        <v>1.003749419796874</v>
+        <v>1.006960514402965</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2358828414577263</v>
+        <v>0.3213919427351236</v>
       </c>
       <c r="P4" t="n">
-        <v>151.9444433447665</v>
+        <v>150.7071387989486</v>
       </c>
       <c r="Q4" t="n">
-        <v>240.9223785601451</v>
+        <v>239.6850740143273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_3</t>
+          <t>model_14_9_12</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9928667942976327</v>
+        <v>0.9863159419787364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7984695776157461</v>
+        <v>0.7817806622773537</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9371791900072054</v>
+        <v>0.7831706565833376</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9967566680035532</v>
+        <v>0.8881546253453322</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9808332968649194</v>
+        <v>0.8780915797563652</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04769977937712203</v>
+        <v>0.09150535899748291</v>
       </c>
       <c r="H5" t="n">
-        <v>1.347634862445775</v>
+        <v>1.459233716158994</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08362869597336438</v>
+        <v>0.1384681536168043</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01097714784035367</v>
+        <v>0.4047166674669125</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04730291378733235</v>
+        <v>0.2715924032008075</v>
       </c>
       <c r="L5" t="n">
-        <v>1.298287688280421</v>
+        <v>0.2137431965950417</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2184027915964492</v>
+        <v>0.3024985272649818</v>
       </c>
       <c r="N5" t="n">
-        <v>1.003493815037894</v>
+        <v>1.006702395765517</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2277006505908151</v>
+        <v>0.3153765158289286</v>
       </c>
       <c r="P5" t="n">
-        <v>152.0856570126322</v>
+        <v>150.7827154802744</v>
       </c>
       <c r="Q5" t="n">
-        <v>241.0635922280109</v>
+        <v>239.7606506956531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_4</t>
+          <t>model_14_9_16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9931427458604674</v>
+        <v>0.9856254270571886</v>
       </c>
       <c r="C6" t="n">
-        <v>0.797695628077855</v>
+        <v>0.7817550489554519</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9198373587623684</v>
+        <v>0.7767016120056685</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9955170310103674</v>
+        <v>0.8767944475756163</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9753061991396617</v>
+        <v>0.8679386040459105</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04585449000580671</v>
+        <v>0.09612283545740227</v>
       </c>
       <c r="H6" t="n">
-        <v>1.352810266569362</v>
+        <v>1.45940499256049</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1067145927162146</v>
+        <v>0.1425993133769173</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01517273390970495</v>
+        <v>0.445823895217606</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06094364403444</v>
+        <v>0.2942116042972617</v>
       </c>
       <c r="L6" t="n">
-        <v>1.211023439433162</v>
+        <v>0.1920822251272574</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2141366152852116</v>
+        <v>0.3100368291951817</v>
       </c>
       <c r="N6" t="n">
-        <v>1.003358655088751</v>
+        <v>1.007040607155663</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2232528543218057</v>
+        <v>0.3232357388787334</v>
       </c>
       <c r="P6" t="n">
-        <v>152.164564313843</v>
+        <v>150.6842567388165</v>
       </c>
       <c r="Q6" t="n">
-        <v>241.1424995292216</v>
+        <v>239.6621919541952</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_5</t>
+          <t>model_14_9_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9932384204342186</v>
+        <v>0.9864950255264864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7968607169868758</v>
+        <v>0.7817356187741935</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9024432806101693</v>
+        <v>0.7851601690596827</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9942642957553088</v>
+        <v>0.8917391331290027</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9697560211901785</v>
+        <v>0.8812877614086845</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04521471369059121</v>
+        <v>0.0903078264890754</v>
       </c>
       <c r="H7" t="n">
-        <v>1.358393320879152</v>
+        <v>1.459534922272033</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1298700419008723</v>
+        <v>0.1371976423711574</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01941265141265106</v>
+        <v>0.3917459921109084</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07464133566134437</v>
+        <v>0.2644718232254056</v>
       </c>
       <c r="L7" t="n">
-        <v>1.132449829911265</v>
+        <v>0.2207416936583663</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2126375171285425</v>
+        <v>0.3005126062065873</v>
       </c>
       <c r="N7" t="n">
-        <v>1.003311794073036</v>
+        <v>1.006614681374782</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2216899364530462</v>
+        <v>0.313306049999655</v>
       </c>
       <c r="P7" t="n">
-        <v>152.1926654419746</v>
+        <v>150.8090623004644</v>
       </c>
       <c r="Q7" t="n">
-        <v>241.1706006573532</v>
+        <v>239.7869975158431</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_6</t>
+          <t>model_14_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9932035808802699</v>
+        <v>0.9854703357671871</v>
       </c>
       <c r="C8" t="n">
-        <v>0.795998858448441</v>
+        <v>0.7817223565793817</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8854011727607148</v>
+        <v>0.7754137335551254</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9930333346554794</v>
+        <v>0.8745813975136792</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9643156989283017</v>
+        <v>0.8659567420667666</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04544768594826773</v>
+        <v>0.09715993162777158</v>
       </c>
       <c r="H8" t="n">
-        <v>1.36415657289416</v>
+        <v>1.459623606629806</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1525569390652161</v>
+        <v>0.1434217581084263</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02357887367831996</v>
+        <v>0.4538318995608349</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08806790637176802</v>
+        <v>0.2986268748475015</v>
       </c>
       <c r="L8" t="n">
-        <v>1.061708123817985</v>
+        <v>0.1879543388146054</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2131846287804722</v>
+        <v>0.3117048790567314</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003328858344358</v>
+        <v>1.00711657023648</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2222603397806758</v>
+        <v>0.3249748010762286</v>
       </c>
       <c r="P8" t="n">
-        <v>152.1823867477687</v>
+        <v>150.662793757112</v>
       </c>
       <c r="Q8" t="n">
-        <v>241.1603219631473</v>
+        <v>239.6407289724906</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_7</t>
+          <t>model_14_9_18</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9930761175790673</v>
+        <v>0.985324367972785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7951346210690154</v>
+        <v>0.7816854569010672</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8689796955594895</v>
+        <v>0.7742392949994623</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9918467021887463</v>
+        <v>0.8725772884513675</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9590731782635196</v>
+        <v>0.8641608647700838</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04630003363032368</v>
+        <v>0.09813601894105892</v>
       </c>
       <c r="H9" t="n">
-        <v>1.369935732229825</v>
+        <v>1.459870354948602</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1744176365705861</v>
+        <v>0.1441717596339419</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02759506444564299</v>
+        <v>0.4610838430895087</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1010063079991513</v>
+        <v>0.3026278013617253</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9980072796619257</v>
+        <v>0.1842409443283305</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2151744260601703</v>
+        <v>0.3132666898044842</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003391289349028</v>
+        <v>1.007188064666391</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2243348468500188</v>
+        <v>0.3266031013409071</v>
       </c>
       <c r="P9" t="n">
-        <v>152.1452251830667</v>
+        <v>150.6428016284869</v>
       </c>
       <c r="Q9" t="n">
-        <v>241.1231603984453</v>
+        <v>239.6207368438655</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_8</t>
+          <t>model_14_9_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9928847076633784</v>
+        <v>0.9866686481257123</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7942855864355767</v>
+        <v>0.7816543790139565</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8533477636530106</v>
+        <v>0.7873103156119817</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9907176927823751</v>
+        <v>0.895672192463361</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9540830752392703</v>
+        <v>0.8847900618171958</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04757999261789694</v>
+        <v>0.08914681136859288</v>
       </c>
       <c r="H10" t="n">
-        <v>1.375613230733076</v>
+        <v>1.460078172922812</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1952272708467632</v>
+        <v>0.1358245495119946</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03141622835376698</v>
+        <v>0.3775140699445615</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1133217496002651</v>
+        <v>0.2566692597701679</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9406471886607127</v>
+        <v>0.228521838270899</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2181283856307953</v>
+        <v>0.2985746328283648</v>
       </c>
       <c r="N10" t="n">
-        <v>1.003485041144468</v>
+        <v>1.006529641734345</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2274145625951046</v>
+        <v>0.3112855730825637</v>
       </c>
       <c r="P10" t="n">
-        <v>152.0906858585174</v>
+        <v>150.8349414047006</v>
       </c>
       <c r="Q10" t="n">
-        <v>241.0686210738961</v>
+        <v>239.8128766200792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_9</t>
+          <t>model_14_9_19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9926511563178639</v>
+        <v>0.9851878659101466</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7934640421031048</v>
+        <v>0.7816461946801919</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8386069678302785</v>
+        <v>0.773171085702788</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9896543564937975</v>
+        <v>0.8707637172678391</v>
       </c>
       <c r="F11" t="n">
-        <v>0.949378372669569</v>
+        <v>0.8625349242744622</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04914175154075782</v>
+        <v>0.0990488088624558</v>
       </c>
       <c r="H11" t="n">
-        <v>1.381106901467178</v>
+        <v>1.460132901600381</v>
       </c>
       <c r="I11" t="n">
-        <v>0.214850601593471</v>
+        <v>0.1448539226966348</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03501511975819846</v>
+        <v>0.4676463181840567</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1249328304669739</v>
+        <v>0.3062501359452169</v>
       </c>
       <c r="L11" t="n">
-        <v>0.888996838470013</v>
+        <v>0.1808946159028825</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2216793890752088</v>
+        <v>0.3147202072674327</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00359943364023</v>
+        <v>1.00725492281952</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2311167396077374</v>
+        <v>0.3281184980514493</v>
       </c>
       <c r="P11" t="n">
-        <v>152.0260925372685</v>
+        <v>150.6242850630574</v>
       </c>
       <c r="Q11" t="n">
-        <v>241.0040277526472</v>
+        <v>239.6022202784361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_10</t>
+          <t>model_14_9_20</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9923918476501413</v>
+        <v>0.9850608801234948</v>
       </c>
       <c r="C12" t="n">
-        <v>0.792678327535749</v>
+        <v>0.7816060261666615</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8248077309043762</v>
+        <v>0.7722013475408894</v>
       </c>
       <c r="E12" t="n">
-        <v>0.988660188517857</v>
+        <v>0.8691236781834835</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9449750187029969</v>
+        <v>0.8610640324983379</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05087574979582531</v>
+        <v>0.09989796340251195</v>
       </c>
       <c r="H12" t="n">
-        <v>1.38636097839697</v>
+        <v>1.460401508635317</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2332205046506439</v>
+        <v>0.1454732016680783</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03837990907424765</v>
+        <v>0.473580860893447</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1358001909925632</v>
+        <v>0.3095270468552884</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8424790090352952</v>
+        <v>0.1778851104973647</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2255565334806893</v>
+        <v>0.3160663908145122</v>
       </c>
       <c r="N12" t="n">
-        <v>1.003726441967278</v>
+        <v>1.007317119939513</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2351589420773545</v>
+        <v>0.329521991419112</v>
       </c>
       <c r="P12" t="n">
-        <v>151.956737794653</v>
+        <v>150.6072119597933</v>
       </c>
       <c r="Q12" t="n">
-        <v>240.9346730100316</v>
+        <v>239.585147175172</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_11</t>
+          <t>model_14_9_21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9921190395236978</v>
+        <v>0.9849431608037534</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7919337359839191</v>
+        <v>0.7815659458981182</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8119650598401117</v>
+        <v>0.7713197943785983</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9877365547728629</v>
+        <v>0.8676406691755265</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9408780147476445</v>
+        <v>0.85973330317061</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05270001899351869</v>
+        <v>0.1006851530356701</v>
       </c>
       <c r="H13" t="n">
-        <v>1.391340065532585</v>
+        <v>1.460669525575619</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2503170023564596</v>
+        <v>0.1460361653185421</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0415059733131991</v>
+        <v>0.4789471844037125</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1459114878348294</v>
+        <v>0.3124916983158282</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8005999909739685</v>
+        <v>0.1751834958868314</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2295648470335097</v>
+        <v>0.3173092388123455</v>
       </c>
       <c r="N13" t="n">
-        <v>1.003860062274107</v>
+        <v>1.007374778381835</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2393378978364713</v>
+        <v>0.3308177500292632</v>
       </c>
       <c r="P13" t="n">
-        <v>151.8862789260531</v>
+        <v>150.5915138554157</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.8642141414317</v>
+        <v>239.5694490707943</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_12</t>
+          <t>model_14_9_22</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9918418259219283</v>
+        <v>0.9848344807509385</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7912332851318683</v>
+        <v>0.7815267401143583</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8000692040686707</v>
+        <v>0.7705198309118289</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9868820563861113</v>
+        <v>0.8663007446158023</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9370837789308539</v>
+        <v>0.8585304901464156</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05455374762500318</v>
+        <v>0.1014118970492694</v>
       </c>
       <c r="H14" t="n">
-        <v>1.396023983605528</v>
+        <v>1.460931694832148</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2661530749216961</v>
+        <v>0.1465470254376524</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04439804699883878</v>
+        <v>0.4837957514914707</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1552755609602674</v>
+        <v>0.3151713727730095</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7628811609013525</v>
+        <v>0.1727440871201518</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2335674369962628</v>
+        <v>0.3184523465909294</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00399584036477</v>
+        <v>1.007428009428112</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2435108863404423</v>
+        <v>0.3320095222725407</v>
       </c>
       <c r="P14" t="n">
-        <v>151.817137736659</v>
+        <v>150.5771297336107</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.7950729520377</v>
+        <v>239.5550649489894</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_13</t>
+          <t>model_14_9_9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9915668181309786</v>
+        <v>0.9868302287333107</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7905783364631495</v>
+        <v>0.7815250097975951</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7890933984277242</v>
+        <v>0.7896274422732963</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9860946397197189</v>
+        <v>0.8999803954501964</v>
       </c>
       <c r="F15" t="n">
-        <v>0.93358369244329</v>
+        <v>0.8886208983748972</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05639272598937794</v>
+        <v>0.08806632110157192</v>
       </c>
       <c r="H15" t="n">
-        <v>1.400403628369013</v>
+        <v>1.460943265468311</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2807643528264976</v>
+        <v>0.1343448224352403</v>
       </c>
       <c r="J15" t="n">
-        <v>0.04706308072601081</v>
+        <v>0.3619246764538916</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1639136813611834</v>
+        <v>0.2481347704797943</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7289219885268676</v>
+        <v>0.2371626666843761</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2374715266918919</v>
+        <v>0.2967597026241466</v>
       </c>
       <c r="N15" t="n">
-        <v>1.004130538058296</v>
+        <v>1.006450500212256</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2475811812169942</v>
+        <v>0.3093933775421284</v>
       </c>
       <c r="P15" t="n">
-        <v>151.7508302012305</v>
+        <v>150.8593301989463</v>
       </c>
       <c r="Q15" t="n">
-        <v>240.7287654166091</v>
+        <v>239.8372654143249</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_14</t>
+          <t>model_14_9_23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9912987815093313</v>
+        <v>0.9847344437469987</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7899690091864527</v>
+        <v>0.781488882878459</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7789990470354323</v>
+        <v>0.769794967831733</v>
       </c>
       <c r="E16" t="n">
-        <v>0.985371539480473</v>
+        <v>0.8650902864683763</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9303654067839737</v>
+        <v>0.857443540514901</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05818508811252931</v>
+        <v>0.1020808449552427</v>
       </c>
       <c r="H16" t="n">
-        <v>1.404478202673978</v>
+        <v>1.461184846342924</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2942022159124894</v>
+        <v>0.1470099261260201</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04951043370692469</v>
+        <v>0.4881758395286114</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1718563248097071</v>
+        <v>0.3175929221786314</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6983411742819698</v>
+        <v>0.1705520370634972</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2412158537752635</v>
+        <v>0.3195009310710107</v>
       </c>
       <c r="N16" t="n">
-        <v>1.004261821301552</v>
+        <v>1.007477007144327</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2514849120561305</v>
+        <v>0.3331027471648081</v>
       </c>
       <c r="P16" t="n">
-        <v>151.6882523501439</v>
+        <v>150.5639803640741</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.6661875655226</v>
+        <v>239.5419155794527</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_15</t>
+          <t>model_14_9_24</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9910409993972408</v>
+        <v>0.9846426563899873</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7894044825455739</v>
+        <v>0.7814527752731443</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7697418409542506</v>
+        <v>0.7691381174545587</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9847091204817227</v>
+        <v>0.8639979336402857</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9274145222616489</v>
+        <v>0.8564623231595804</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0599088782830552</v>
+        <v>0.1026946274342206</v>
       </c>
       <c r="H17" t="n">
-        <v>1.408253194920941</v>
+        <v>1.461426298065923</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3065256493896242</v>
+        <v>0.1474293936090491</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05175240933245658</v>
+        <v>0.4921285590545452</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1791390293610404</v>
+        <v>0.3197789170349447</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6708041877933026</v>
+        <v>0.1685765829771007</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2447629021789356</v>
+        <v>0.3204600247054546</v>
       </c>
       <c r="N17" t="n">
-        <v>1.004388081927882</v>
+        <v>1.007521964217149</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2551829656537493</v>
+        <v>0.3341026714008679</v>
       </c>
       <c r="P17" t="n">
-        <v>151.6298611328581</v>
+        <v>150.5519909532347</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.6077963482367</v>
+        <v>239.5299261686134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_16</t>
+          <t>model_14_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9907956346915682</v>
+        <v>0.9869708927183266</v>
       </c>
       <c r="C18" t="n">
-        <v>0.788883356478252</v>
+        <v>0.781332054810064</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7612714531731598</v>
+        <v>0.7921069269664057</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9841035358516692</v>
+        <v>0.9046909819029296</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9247148043122752</v>
+        <v>0.8928018288577874</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06154963319968895</v>
+        <v>0.08712570038607245</v>
       </c>
       <c r="H18" t="n">
-        <v>1.411737967332687</v>
+        <v>1.462233556358408</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3178016498837692</v>
+        <v>0.1327614128193367</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05380202744778548</v>
+        <v>0.3448792433561768</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1858018614876363</v>
+        <v>0.2388203280877568</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6460116470179949</v>
+        <v>0.2467701194685207</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2480919853596422</v>
+        <v>0.2951706292741073</v>
       </c>
       <c r="N18" t="n">
-        <v>1.004508260559232</v>
+        <v>1.006381603566534</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2586537747976109</v>
+        <v>0.3077366540497425</v>
       </c>
       <c r="P18" t="n">
-        <v>151.5758227715142</v>
+        <v>150.8808067421384</v>
       </c>
       <c r="Q18" t="n">
-        <v>240.5537579868928</v>
+        <v>239.8587419575171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_17</t>
+          <t>model_14_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9905640231548674</v>
+        <v>0.9870789365071265</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7884038135266754</v>
+        <v>0.7810557192171435</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7535367433578396</v>
+        <v>0.7947427866024445</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9835510781123677</v>
+        <v>0.909828904416236</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9222499459379444</v>
+        <v>0.8973521944087151</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06309842061207993</v>
+        <v>0.0864032110728718</v>
       </c>
       <c r="H19" t="n">
-        <v>1.414944673257972</v>
+        <v>1.464081413740676</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3280982967379216</v>
+        <v>0.1310781414906311</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05567183611569329</v>
+        <v>0.3262874787551918</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1918850664268074</v>
+        <v>0.2286828436305816</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6236890684753796</v>
+        <v>0.2574429528196535</v>
       </c>
       <c r="M19" t="n">
-        <v>0.25119398999992</v>
+        <v>0.2939442312291088</v>
       </c>
       <c r="N19" t="n">
-        <v>1.004621702944555</v>
+        <v>1.006328684159775</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2618878381974601</v>
+        <v>0.3064580457009746</v>
       </c>
       <c r="P19" t="n">
-        <v>151.5261190793354</v>
+        <v>150.8974608773349</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.5040542947141</v>
+        <v>239.8753960927135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_18</t>
+          <t>model_14_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9903468922951518</v>
+        <v>0.9871391715671106</v>
       </c>
       <c r="C20" t="n">
-        <v>0.787963631025744</v>
+        <v>0.7806703958632037</v>
       </c>
       <c r="D20" t="n">
-        <v>0.746486604735952</v>
+        <v>0.7975186431612096</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9830477516156233</v>
+        <v>0.9154186774988821</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9200034040870821</v>
+        <v>0.9022895962990297</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06455037567079361</v>
+        <v>0.08600041894940075</v>
       </c>
       <c r="H20" t="n">
-        <v>1.417888175668555</v>
+        <v>1.466658072782721</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3374836246164946</v>
+        <v>0.1293054675234425</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05737535871923322</v>
+        <v>0.306060675984941</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1974294719900402</v>
+        <v>0.2176831042993784</v>
       </c>
       <c r="L20" t="n">
-        <v>0.603588456854657</v>
+        <v>0.269294588068485</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2540676596318264</v>
+        <v>0.2932582802742333</v>
       </c>
       <c r="N20" t="n">
-        <v>1.004728052753395</v>
+        <v>1.006299181273252</v>
       </c>
       <c r="O20" t="n">
-        <v>0.264883845894913</v>
+        <v>0.3057428923938358</v>
       </c>
       <c r="P20" t="n">
-        <v>151.4806186837291</v>
+        <v>150.9068062224717</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.4585538991077</v>
+        <v>239.8847414378503</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_19</t>
+          <t>model_14_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9901444129789673</v>
+        <v>0.9871316696816645</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7875605161294957</v>
+        <v>0.7801429080529034</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7400686758228239</v>
+        <v>0.8004009627604622</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9825900164787269</v>
+        <v>0.9214800040338073</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9179585987486333</v>
+        <v>0.9076252280998498</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06590435579045159</v>
+        <v>0.08605058409192176</v>
       </c>
       <c r="H21" t="n">
-        <v>1.42058380683594</v>
+        <v>1.470185386199058</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3460273384895921</v>
+        <v>0.1274648057995581</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05892457609042463</v>
+        <v>0.284127539427279</v>
       </c>
       <c r="K21" t="n">
-        <v>0.202475997203836</v>
+        <v>0.2057961726134185</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5854937949354766</v>
+        <v>0.2824625556471269</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2567184367949673</v>
+        <v>0.2933437984548536</v>
       </c>
       <c r="N21" t="n">
-        <v>1.004827226296016</v>
+        <v>1.006302855666124</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2676474721297539</v>
+        <v>0.3058320512604522</v>
       </c>
       <c r="P21" t="n">
-        <v>151.4391014853721</v>
+        <v>150.905639937055</v>
       </c>
       <c r="Q21" t="n">
-        <v>240.4170367007507</v>
+        <v>239.8835751524337</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_20</t>
+          <t>model_14_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9899565304207005</v>
+        <v>0.9870306542310792</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7871921246317829</v>
+        <v>0.7794302074575568</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7342349517354178</v>
+        <v>0.8033377234603534</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9821741780368001</v>
+        <v>0.9280270583258403</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9161001220387558</v>
+        <v>0.9133631135549457</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06716072732270091</v>
+        <v>0.08672607487511966</v>
       </c>
       <c r="H22" t="n">
-        <v>1.423047242477433</v>
+        <v>1.474951218361825</v>
       </c>
       <c r="I22" t="n">
-        <v>0.353793343705923</v>
+        <v>0.1255893777540703</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06033199292586856</v>
+        <v>0.2604367788305376</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2070626683158957</v>
+        <v>0.1930130843170886</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5692027430277321</v>
+        <v>0.2970900194813882</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2591538680450302</v>
+        <v>0.2944929114174392</v>
       </c>
       <c r="N22" t="n">
-        <v>1.004919250406187</v>
+        <v>1.006352332621512</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2701865847301697</v>
+        <v>0.3070300843408467</v>
       </c>
       <c r="P22" t="n">
-        <v>151.4013332342614</v>
+        <v>150.8900013842801</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3792684496401</v>
+        <v>239.8679365996587</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_21</t>
+          <t>model_14_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9897828129246657</v>
+        <v>0.9868026972665167</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7868559616383972</v>
+        <v>0.7784760345485574</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7289371160178988</v>
+        <v>0.8062421360685161</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9817967069624451</v>
+        <v>0.935063577893806</v>
       </c>
       <c r="F23" t="n">
-        <v>0.914412439992084</v>
+        <v>0.9194938717460703</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06832237701858074</v>
+        <v>0.08825042414679424</v>
       </c>
       <c r="H23" t="n">
-        <v>1.425295165962091</v>
+        <v>1.481331776997866</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3608459603880071</v>
+        <v>0.1237346073394366</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06160955433283851</v>
+        <v>0.2349748698431915</v>
       </c>
       <c r="K23" t="n">
-        <v>0.211227822739769</v>
+        <v>0.1793547385913141</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5545327376270359</v>
+        <v>0.3133347037197309</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2613854950424387</v>
+        <v>0.2970697294353537</v>
       </c>
       <c r="N23" t="n">
-        <v>1.005004336526694</v>
+        <v>1.006463985012318</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2725132167089626</v>
+        <v>0.3097166028365325</v>
       </c>
       <c r="P23" t="n">
-        <v>151.3670358753611</v>
+        <v>150.8551535539686</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.3449710907397</v>
+        <v>239.8330887693473</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_22</t>
+          <t>model_14_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9896227492674888</v>
+        <v>0.9864044520120268</v>
       </c>
       <c r="C24" t="n">
-        <v>0.786549727759396</v>
+        <v>0.7772065242155701</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7241313161595553</v>
+        <v>0.8089732882276478</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9814543806484078</v>
+        <v>0.9425788689844288</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9128816115136879</v>
+        <v>0.925988613893508</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06939272343114808</v>
+        <v>0.09091349199731937</v>
       </c>
       <c r="H24" t="n">
-        <v>1.427342953321049</v>
+        <v>1.48982099844011</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3672435661385275</v>
+        <v>0.1219904817946075</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06276816731570556</v>
+        <v>0.207780508211057</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2150058667271165</v>
+        <v>0.1648854950028323</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5413280356279805</v>
+        <v>0.3313762457461179</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2634249863455403</v>
+        <v>0.301518642868595</v>
       </c>
       <c r="N24" t="n">
-        <v>1.005082735052659</v>
+        <v>1.006659043912477</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2746395333791662</v>
+        <v>0.3143549157251474</v>
       </c>
       <c r="P24" t="n">
-        <v>151.3359465333235</v>
+        <v>150.7956937239994</v>
       </c>
       <c r="Q24" t="n">
-        <v>240.3138817487022</v>
+        <v>239.773628939378</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_23</t>
+          <t>model_14_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9894757245946254</v>
+        <v>0.9857796234050729</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7862711326674163</v>
+        <v>0.7755241004960063</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7197763171367315</v>
+        <v>0.8113106918861483</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9811444063688947</v>
+        <v>0.9505386123254058</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9114945463898955</v>
+        <v>0.9327878702439136</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07037587809557215</v>
+        <v>0.09509172376909154</v>
       </c>
       <c r="H25" t="n">
-        <v>1.42920591998393</v>
+        <v>1.501071373599682</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3730410540933278</v>
+        <v>0.1204978057400212</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0638172839330147</v>
+        <v>0.1789778795033553</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2184291065772749</v>
+        <v>0.1497378426216882</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5294428462820271</v>
+        <v>0.3514177302668764</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2652845229099733</v>
+        <v>0.3083694598514768</v>
       </c>
       <c r="N25" t="n">
-        <v>1.005154747137326</v>
+        <v>1.006965082413842</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2765782342649186</v>
+        <v>0.3214973861701366</v>
       </c>
       <c r="P25" t="n">
-        <v>151.3078094304415</v>
+        <v>150.7058266796619</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.2857446458202</v>
+        <v>239.6837618950406</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_14_9_24</t>
+          <t>model_14_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9893409600458758</v>
+        <v>0.9848547006502745</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7860179610770411</v>
+        <v>0.7732985569696349</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7158319974916805</v>
+        <v>0.8129032943532998</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9808638129097554</v>
+        <v>0.9588727884031265</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9102383371190236</v>
+        <v>0.9397844645277893</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07127704925359471</v>
+        <v>0.101276686489306</v>
       </c>
       <c r="H26" t="n">
-        <v>1.430898879574517</v>
+        <v>1.515953593408213</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3782918349803551</v>
+        <v>0.1194807629376166</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06476696034214649</v>
+        <v>0.1488203519464765</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2215293976612508</v>
+        <v>0.1341505529826195</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5187436206402828</v>
+        <v>0.3736885200044185</v>
       </c>
       <c r="M26" t="n">
-        <v>0.266977619387084</v>
+        <v>0.3182399825435296</v>
       </c>
       <c r="N26" t="n">
-        <v>1.005220754263245</v>
+        <v>1.007418105803947</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2783434093642527</v>
+        <v>0.3317881174479889</v>
       </c>
       <c r="P26" t="n">
-        <v>151.2823617864619</v>
+        <v>150.5797980749186</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.2602970018405</v>
+        <v>239.5577332902972</v>
       </c>
     </row>
   </sheetData>
